--- a/configure/table/global.xlsx
+++ b/configure/table/global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12840" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="全局常量表" sheetId="6" r:id="rId1"/>
@@ -1032,8 +1032,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1083,8 +1083,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>

--- a/configure/table/global.xlsx
+++ b/configure/table/global.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12840"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全局常量表" sheetId="6" r:id="rId1"/>
@@ -1032,11 +1032,11 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
@@ -1083,11 +1083,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="65.125" customWidth="1"/>
   </cols>

--- a/configure/table/global.xlsx
+++ b/configure/table/global.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全局常量表" sheetId="6" r:id="rId1"/>
-    <sheet name="生成表" sheetId="2" r:id="rId2"/>
+    <sheet name="全局结构表" sheetId="7" r:id="rId2"/>
+    <sheet name="生成表" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>UidBeginValue</t>
   </si>
@@ -51,7 +52,16 @@
     <t>localhost</t>
   </si>
   <si>
+    <t>S|RspHead|Code|int32|错误码</t>
+  </si>
+  <si>
+    <t>S|RspHead|Msg|string|错误</t>
+  </si>
+  <si>
     <t>@config:col|全局常量表:GlobalConfig</t>
+  </si>
+  <si>
+    <t>@struct|全局结构表</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1043,10 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
@@ -1081,20 +1091,57 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="45.3557692307692" customWidth="1"/>
+    <col min="2" max="2" width="51.1153846153846" customWidth="1"/>
+    <col min="3" max="3" width="54.1538461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="65.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
